--- a/resource/template.xlsx
+++ b/resource/template.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio256/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio256/wplus-server/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758F46F-E83F-DC49-BA0A-6066C2383A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82490655-C17F-384A-9490-A1370F8D854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{51EA5D64-5F22-624D-AC7F-4C50CD3A16EE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="提出" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">提出!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>時間外</t>
     <rPh sb="0" eb="3">
@@ -110,14 +107,14 @@
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
-      <t xml:space="preserve">ネン </t>
+      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツキ </t>
+      <t>ツキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -127,8 +124,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="d"/>
-    <numFmt numFmtId="181" formatCode="[$-411]\ ddd"/>
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="[$-411]\ ddd"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -238,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -274,17 +271,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -481,13 +467,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,8 +498,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -510,41 +513,52 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -559,125 +573,119 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{76B62B80-672E-4C4D-85E9-3368A9DC2355}"/>
-    <cellStyle name="標準 3" xfId="2" xr:uid="{D4257B10-F7D3-644A-AA78-8BC12DCC67E4}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
       <font>
         <color theme="1"/>
@@ -685,6 +693,68 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -700,13 +770,31 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <color theme="1"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1049,619 +1137,1416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD69B19-FC64-CD49-A34B-A9EEC817BB86}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AJ45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81EF8FE-ED73-F344-8013-FE79284C1E75}">
+  <dimension ref="B2:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="94" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="33" width="4.42578125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.85546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="7.5703125" style="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="33" width="4.28515625" customWidth="1"/>
+    <col min="34" max="35" width="5" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="13" customHeight="1"/>
-    <row r="2" spans="2:36" ht="32.25" customHeight="1">
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="2:36" ht="31">
+      <c r="B2" s="1"/>
+      <c r="C2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="AH2" s="6"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="2:36" ht="11.25" customHeight="1" thickBot="1">
-      <c r="D3" s="5"/>
+    <row r="3" spans="2:36" ht="25" thickBot="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="2:36" ht="18" customHeight="1" thickBot="1">
-      <c r="C4" s="14">
+    <row r="4" spans="2:36" ht="21" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="7">
         <v>2024</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="11"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="2:36" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:36" ht="21" thickBot="1">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="10">
         <f>DATE($C$4,$E$4,1)</f>
         <v>45261</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="10">
         <f>C5+1</f>
         <v>45262</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <f t="shared" ref="E5:AF5" si="0">D5+1</f>
         <v>45263</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>45264</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>45265</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>45266</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>45267</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>45268</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="10">
         <f t="shared" si="0"/>
         <v>45269</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="10">
         <f t="shared" si="0"/>
         <v>45270</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="10">
         <f t="shared" si="0"/>
         <v>45271</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="10">
         <f t="shared" si="0"/>
         <v>45272</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>45273</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="10">
         <f t="shared" si="0"/>
         <v>45274</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="10">
         <f t="shared" si="0"/>
         <v>45275</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="10">
         <f t="shared" si="0"/>
         <v>45276</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="10">
         <f t="shared" si="0"/>
         <v>45277</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
         <v>45278</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
         <v>45279</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="10">
         <f t="shared" si="0"/>
         <v>45280</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="10">
         <f t="shared" si="0"/>
         <v>45281</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="10">
         <f t="shared" si="0"/>
         <v>45282</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="10">
         <f t="shared" si="0"/>
         <v>45283</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="10">
         <f t="shared" si="0"/>
         <v>45284</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="10">
         <f t="shared" si="0"/>
         <v>45285</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AB5" s="10">
         <f t="shared" si="0"/>
         <v>45286</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="10">
         <f t="shared" si="0"/>
         <v>45287</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AD5" s="10">
         <f t="shared" si="0"/>
         <v>45288</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="10">
         <f t="shared" si="0"/>
         <v>45289</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AF5" s="10">
         <f t="shared" si="0"/>
         <v>45290</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="13">
         <f>AF5+1</f>
         <v>45291</v>
       </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AH5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="28" t="s">
+      <c r="AI5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="26" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:36" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="19">
+    <row r="6" spans="2:36" ht="21" thickBot="1">
+      <c r="B6" s="29"/>
+      <c r="C6" s="12">
         <f>C5</f>
         <v>45261</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="12">
         <f t="shared" ref="D6:AG6" si="1">D5</f>
         <v>45262</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
         <v>45263</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
         <v>45264</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>45265</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>45266</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>45267</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="12">
         <f t="shared" si="1"/>
         <v>45268</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="12">
         <f t="shared" si="1"/>
         <v>45269</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>45270</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="12">
         <f t="shared" si="1"/>
         <v>45271</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="12">
         <f t="shared" si="1"/>
         <v>45272</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="12">
         <f t="shared" si="1"/>
         <v>45273</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="12">
         <f t="shared" si="1"/>
         <v>45274</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="12">
         <f t="shared" si="1"/>
         <v>45275</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="12">
         <f t="shared" si="1"/>
         <v>45276</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="12">
         <f t="shared" si="1"/>
         <v>45277</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="12">
         <f t="shared" si="1"/>
         <v>45278</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="12">
         <f t="shared" si="1"/>
         <v>45279</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="12">
         <f t="shared" si="1"/>
         <v>45280</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="12">
         <f t="shared" si="1"/>
         <v>45281</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="12">
         <f t="shared" si="1"/>
         <v>45282</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="12">
         <f t="shared" si="1"/>
         <v>45283</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="12">
         <f t="shared" si="1"/>
         <v>45284</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="12">
         <f t="shared" si="1"/>
         <v>45285</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="12">
         <f t="shared" si="1"/>
         <v>45286</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="12">
         <f t="shared" si="1"/>
         <v>45287</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="12">
         <f t="shared" si="1"/>
         <v>45288</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="12">
         <f t="shared" si="1"/>
         <v>45289</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="12">
         <f t="shared" si="1"/>
         <v>45290</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="14">
         <f t="shared" si="1"/>
         <v>45291</v>
       </c>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="27" t="s">
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:36" ht="18" customHeight="1">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="34">
+    <row r="7" spans="2:36">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="23">
         <f t="shared" ref="AH7:AH8" si="2">SUM(C7:AG7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="35">
-        <f t="shared" ref="AI7:AI8" si="3">COUNT(C7:AG7)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="36">
+      <c r="AI7" s="24">
+        <f>COUNT(C7:AG7)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="25">
         <f>AH8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:36" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18" t="str">
-        <f>IF(C7-8&gt;0,C7-8," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" s="18" t="str">
-        <f t="shared" ref="D8:AG8" si="4">IF(D7-8&gt;0,D7-8," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AC8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AD8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AE8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AF8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG8" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH8" s="24">
+    <row r="8" spans="2:36" ht="21" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11" t="str">
+        <f t="shared" ref="D8:AG8" si="3">IF(AG7-8&gt;0,AG7-8," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH8" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="25">
+      <c r="AI8" s="4">
+        <f>COUNT(C8:AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16">
         <f>AH7+AH8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:36" ht="18" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AJ9" s="2"/>
+    <row r="9" spans="2:36">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="23">
+        <f>SUM(C9:AG9)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="24">
+        <f>COUNT(C9:AG9)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="25">
+        <f>AH10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:36" ht="18" customHeight="1"/>
-    <row r="11" spans="2:36" ht="32.25" customHeight="1"/>
-    <row r="12" spans="2:36" ht="11.25" customHeight="1"/>
-    <row r="13" spans="2:36" ht="18" customHeight="1"/>
-    <row r="14" spans="2:36" ht="18" customHeight="1"/>
-    <row r="15" spans="2:36" ht="18" customHeight="1"/>
-    <row r="16" spans="2:36" ht="18" customHeight="1"/>
-    <row r="17" ht="18" customHeight="1"/>
-    <row r="18" ht="18" customHeight="1"/>
-    <row r="19" ht="18" customHeight="1"/>
-    <row r="20" ht="18" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
-    <row r="24" ht="32.25" customHeight="1"/>
-    <row r="25" ht="11.25" customHeight="1"/>
-    <row r="26" ht="18" customHeight="1"/>
-    <row r="27" ht="18" customHeight="1"/>
-    <row r="28" ht="18" customHeight="1"/>
-    <row r="29" ht="18" customHeight="1"/>
-    <row r="30" ht="18" customHeight="1"/>
-    <row r="33" ht="32.25" customHeight="1"/>
-    <row r="34" ht="11.25" customHeight="1"/>
-    <row r="35" ht="18" customHeight="1"/>
-    <row r="36" ht="18" customHeight="1"/>
-    <row r="37" ht="18" customHeight="1"/>
-    <row r="38" ht="18" customHeight="1"/>
-    <row r="39" ht="18" customHeight="1"/>
-    <row r="40" ht="18" customHeight="1"/>
-    <row r="41" ht="18" customHeight="1"/>
-    <row r="42" ht="18" customHeight="1"/>
-    <row r="43" ht="18" customHeight="1"/>
-    <row r="44" ht="18" customHeight="1"/>
-    <row r="45" ht="18" customHeight="1"/>
+    <row r="10" spans="2:36" ht="21" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11" t="str">
+        <f t="shared" ref="D10:AG10" si="4">IF(AG9-8&gt;0,AG9-8," ")</f>
+        <v/>
+      </c>
+      <c r="AH10" s="15">
+        <f t="shared" ref="AH9:AH18" si="5">SUM(C10:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" ref="AI9:AI18" si="6">COUNT(C10:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="16">
+        <f>AH9+AH10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="23">
+        <f>SUM(C11:AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="24">
+        <f>COUNT(C11:AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="25">
+        <f>AH12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" ht="21" thickBot="1">
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>IF(C11-8&gt;0,C11-8," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f t="shared" ref="D12:AG12" si="7">IF(D11-8&gt;0,D11-8," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH12" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="16">
+        <f>AH11+AH12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="23">
+        <f>SUM(C13:AG13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="24">
+        <f>COUNT(C13:AG13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="25">
+        <f>AH14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" ht="21" thickBot="1">
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>IF(C13-8&gt;0,C13-8," ")</f>
+        <v/>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f t="shared" ref="D14:AG14" si="8">IF(D13-8&gt;0,D13-8," ")</f>
+        <v/>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="16">
+        <f>AH13+AH14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="23">
+        <f>SUM(C15:AG15)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="24">
+        <f>COUNT(C15:AG15)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="25">
+        <f>AH16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" ht="21" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>IF(C15-8&gt;0,C15-8," ")</f>
+        <v/>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f t="shared" ref="D16:AG16" si="9">IF(D15-8&gt;0,D15-8," ")</f>
+        <v/>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AF16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH16" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="16">
+        <f>AH15+AH16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="23">
+        <f>SUM(C17:AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="24">
+        <f>COUNT(C17:AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="25">
+        <f>AH18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" ht="21" thickBot="1">
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f>IF(C17-8&gt;0,C17-8," ")</f>
+        <v/>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f t="shared" ref="D18:AG18" si="10">IF(D17-8&gt;0,D17-8," ")</f>
+        <v/>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="R18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="V18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="X18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Y18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AC18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AE18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG18" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH18" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="16">
+        <f>AH17+AH18</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="振">
-      <formula>NOT(ISERROR(SEARCH("振",A1)))</formula>
+  <conditionalFormatting sqref="B2:C2 J2:AJ2">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="休">
+      <formula>NOT(ISERROR(SEARCH("休",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="欠">
-      <formula>NOT(ISERROR(SEARCH("欠",A1)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="欠">
+      <formula>NOT(ISERROR(SEARCH("欠",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="休">
-      <formula>NOT(ISERROR(SEARCH("休",A1)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="振">
+      <formula>NOT(ISERROR(SEARCH("振",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AJ18">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="振">
+      <formula>NOT(ISERROR(SEARCH("振",B3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="欠">
+      <formula>NOT(ISERROR(SEARCH("欠",B3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="休">
+      <formula>NOT(ISERROR(SEARCH("休",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:AG6">
-    <cfRule type="containsText" dxfId="2" priority="28" operator="containsText" text="土">
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
+      <formula>"日"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",C6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
-      <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:AG8">
-    <cfRule type="top10" dxfId="0" priority="49" percent="1" rank="100"/>
+    <cfRule type="top10" dxfId="5" priority="26" percent="1" rank="100"/>
   </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <conditionalFormatting sqref="C10:AG10">
+    <cfRule type="top10" dxfId="4" priority="20" percent="1" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:AG12">
+    <cfRule type="top10" dxfId="3" priority="16" percent="1" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:AG14">
+    <cfRule type="top10" dxfId="2" priority="12" percent="1" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:AG16">
+    <cfRule type="top10" dxfId="1" priority="8" percent="1" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:AG18">
+    <cfRule type="top10" dxfId="0" priority="4" percent="1" rank="100"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="AJ8:AJ17" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/resource/template.xlsx
+++ b/resource/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio256/wplus-server/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82490655-C17F-384A-9490-A1370F8D854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03A8A258-0119-4A44-8F42-45ECBDEA9CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -415,17 +416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -573,7 +563,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,9 +606,6 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -631,7 +618,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,19 +627,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
@@ -664,16 +651,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -685,7 +672,14 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -747,14 +741,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -764,7 +753,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -795,6 +784,397 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1141,7 +1521,7 @@
   <dimension ref="B2:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1155,15 +1535,15 @@
   <sheetData>
     <row r="2" spans="2:36" ht="31">
       <c r="B2" s="1"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="5"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1231,9 +1611,7 @@
     </row>
     <row r="4" spans="2:36" ht="21" thickBot="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="7">
-        <v>2024</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1268,324 +1646,324 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="26" t="s">
+      <c r="AH4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="27"/>
+      <c r="AI4" s="26"/>
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="2:36" ht="21" thickBot="1">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="10" t="e">
         <f>DATE($C$4,$E$4,1)</f>
-        <v>45261</v>
-      </c>
-      <c r="D5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" s="10" t="e">
         <f>C5+1</f>
-        <v>45262</v>
-      </c>
-      <c r="E5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" s="10" t="e">
         <f t="shared" ref="E5:AF5" si="0">D5+1</f>
-        <v>45263</v>
-      </c>
-      <c r="F5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45264</v>
-      </c>
-      <c r="G5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45265</v>
-      </c>
-      <c r="H5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45266</v>
-      </c>
-      <c r="I5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45267</v>
-      </c>
-      <c r="J5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45268</v>
-      </c>
-      <c r="K5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45269</v>
-      </c>
-      <c r="L5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45270</v>
-      </c>
-      <c r="M5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="M5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45271</v>
-      </c>
-      <c r="N5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45272</v>
-      </c>
-      <c r="O5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45273</v>
-      </c>
-      <c r="P5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45274</v>
-      </c>
-      <c r="Q5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45275</v>
-      </c>
-      <c r="R5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="R5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45276</v>
-      </c>
-      <c r="S5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="S5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45277</v>
-      </c>
-      <c r="T5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="T5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45278</v>
-      </c>
-      <c r="U5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="U5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45279</v>
-      </c>
-      <c r="V5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="V5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45280</v>
-      </c>
-      <c r="W5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="W5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45281</v>
-      </c>
-      <c r="X5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="X5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45282</v>
-      </c>
-      <c r="Y5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45283</v>
-      </c>
-      <c r="Z5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45284</v>
-      </c>
-      <c r="AA5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45285</v>
-      </c>
-      <c r="AB5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45286</v>
-      </c>
-      <c r="AC5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45287</v>
-      </c>
-      <c r="AD5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45288</v>
-      </c>
-      <c r="AE5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45289</v>
-      </c>
-      <c r="AF5" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>45290</v>
-      </c>
-      <c r="AG5" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG5" s="13" t="e">
         <f>AF5+1</f>
-        <v>45291</v>
-      </c>
-      <c r="AH5" s="30" t="s">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="32" t="s">
+      <c r="AI5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="17" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:36" ht="21" thickBot="1">
-      <c r="B6" s="29"/>
-      <c r="C6" s="12">
-        <f>C5</f>
-        <v>45261</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" ref="D6:AG6" si="1">D5</f>
-        <v>45262</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="B6" s="28"/>
+      <c r="C6" s="12" t="e">
+        <f>TEXT(C5,"aaa")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="12" t="e">
+        <f t="shared" ref="D6:AG6" si="1">TEXT(D5,"aaa")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45263</v>
-      </c>
-      <c r="F6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45264</v>
-      </c>
-      <c r="G6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45265</v>
-      </c>
-      <c r="H6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45266</v>
-      </c>
-      <c r="I6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45267</v>
-      </c>
-      <c r="J6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45268</v>
-      </c>
-      <c r="K6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45269</v>
-      </c>
-      <c r="L6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="L6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45270</v>
-      </c>
-      <c r="M6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="M6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45271</v>
-      </c>
-      <c r="N6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45272</v>
-      </c>
-      <c r="O6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45273</v>
-      </c>
-      <c r="P6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45274</v>
-      </c>
-      <c r="Q6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45275</v>
-      </c>
-      <c r="R6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="R6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45276</v>
-      </c>
-      <c r="S6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="S6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45277</v>
-      </c>
-      <c r="T6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="T6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45278</v>
-      </c>
-      <c r="U6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="U6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45279</v>
-      </c>
-      <c r="V6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="V6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45280</v>
-      </c>
-      <c r="W6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="W6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45281</v>
-      </c>
-      <c r="X6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="X6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45282</v>
-      </c>
-      <c r="Y6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45283</v>
-      </c>
-      <c r="Z6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45284</v>
-      </c>
-      <c r="AA6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45285</v>
-      </c>
-      <c r="AB6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45286</v>
-      </c>
-      <c r="AC6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45287</v>
-      </c>
-      <c r="AD6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45288</v>
-      </c>
-      <c r="AE6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45289</v>
-      </c>
-      <c r="AF6" s="12">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45290</v>
-      </c>
-      <c r="AG6" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>45291</v>
-      </c>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="18" t="s">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="23">
-        <f t="shared" ref="AH7:AH8" si="2">SUM(C7:AG7)</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="24">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="22">
+        <f>SUM(C7:AG7)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="23">
         <f>COUNT(C7:AG7)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="25">
+      <c r="AJ7" s="24">
         <f>AH8</f>
         <v>0</v>
       </c>
@@ -1625,64 +2003,64 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11" t="str">
-        <f t="shared" ref="D8:AG8" si="3">IF(AG7-8&gt;0,AG7-8," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH8" s="15">
-        <f t="shared" si="2"/>
+        <f>IF(AG7-8&gt;0,AG7-8," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH8" s="14">
+        <f>SUM(C8:AG8)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="4">
         <f>COUNT(C8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="16">
+      <c r="AJ8" s="15">
         <f>AH7+AH8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="23">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="22">
         <f>SUM(C9:AG9)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="24">
+      <c r="AI9" s="23">
         <f>COUNT(C9:AG9)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="25">
+      <c r="AJ9" s="24">
         <f>AH10</f>
         <v>0</v>
       </c>
@@ -1722,64 +2100,64 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11" t="str">
-        <f t="shared" ref="D10:AG10" si="4">IF(AG9-8&gt;0,AG9-8," ")</f>
-        <v/>
-      </c>
-      <c r="AH10" s="15">
-        <f t="shared" ref="AH9:AH18" si="5">SUM(C10:AG10)</f>
+        <f>IF(AG9-8&gt;0,AG9-8," ")</f>
+        <v/>
+      </c>
+      <c r="AH10" s="14">
+        <f t="shared" ref="AH10:AH18" si="2">SUM(C10:AG10)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" ref="AI9:AI18" si="6">COUNT(C10:AG10)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="16">
+        <f t="shared" ref="AI10:AI18" si="3">COUNT(C10:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="15">
         <f>AH9+AH10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="23">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="22">
         <f>SUM(C11:AG11)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="24">
+      <c r="AI11" s="23">
         <f>COUNT(C11:AG11)</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="25">
+      <c r="AJ11" s="24">
         <f>AH12</f>
         <v>0</v>
       </c>
@@ -1793,180 +2171,180 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="11" t="str">
-        <f t="shared" ref="D12:AG12" si="7">IF(D11-8&gt;0,D11-8," ")</f>
+        <f t="shared" ref="D12:AG12" si="4">IF(D11-8&gt;0,D11-8," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AE12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AF12" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG12" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AH12" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AH12" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="15">
         <f>AH11+AH12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="23">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="22">
         <f>SUM(C13:AG13)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="24">
+      <c r="AI13" s="23">
         <f>COUNT(C13:AG13)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="25">
+      <c r="AJ13" s="24">
         <f>AH14</f>
         <v>0</v>
       </c>
@@ -1980,180 +2358,180 @@
         <v/>
       </c>
       <c r="D14" s="11" t="str">
-        <f t="shared" ref="D14:AG14" si="8">IF(D13-8&gt;0,D13-8," ")</f>
+        <f t="shared" ref="D14:AG14" si="5">IF(D13-8&gt;0,D13-8," ")</f>
         <v/>
       </c>
       <c r="E14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF14" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG14" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AH14" s="15">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH14" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="15">
         <f>AH13+AH14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="23">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="22">
         <f>SUM(C15:AG15)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="24">
+      <c r="AI15" s="23">
         <f>COUNT(C15:AG15)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15" s="24">
         <f>AH16</f>
         <v>0</v>
       </c>
@@ -2167,180 +2545,180 @@
         <v/>
       </c>
       <c r="D16" s="11" t="str">
-        <f t="shared" ref="D16:AG16" si="9">IF(D15-8&gt;0,D15-8," ")</f>
+        <f t="shared" ref="D16:AG16" si="6">IF(D15-8&gt;0,D15-8," ")</f>
         <v/>
       </c>
       <c r="E16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AE16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF16" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AG16" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AH16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH16" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="15">
         <f>AH15+AH16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="23">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="22">
         <f>SUM(C17:AG17)</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="24">
+      <c r="AI17" s="23">
         <f>COUNT(C17:AG17)</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AJ17" s="24">
         <f>AH18</f>
         <v>0</v>
       </c>
@@ -2354,134 +2732,134 @@
         <v/>
       </c>
       <c r="D18" s="11" t="str">
-        <f t="shared" ref="D18:AG18" si="10">IF(D17-8&gt;0,D17-8," ")</f>
+        <f t="shared" ref="D18:AG18" si="7">IF(D17-8&gt;0,D17-8," ")</f>
         <v/>
       </c>
       <c r="E18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF18" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG18" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH18" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="15">
         <f>AH17+AH18</f>
         <v>0</v>
       </c>
@@ -2496,52 +2874,46 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="B2:C2 J2:AJ2">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="休">
-      <formula>NOT(ISERROR(SEARCH("休",B2)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="振">
+      <formula>NOT(ISERROR(SEARCH("振",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="欠">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="欠">
       <formula>NOT(ISERROR(SEARCH("欠",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="振">
-      <formula>NOT(ISERROR(SEARCH("振",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:AJ18">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="振">
-      <formula>NOT(ISERROR(SEARCH("振",B3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="欠">
-      <formula>NOT(ISERROR(SEARCH("欠",B3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="休">
-      <formula>NOT(ISERROR(SEARCH("休",B3)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="休">
+      <formula>NOT(ISERROR(SEARCH("休",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:AG6">
-    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
-      <formula>"日"</formula>
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+      <formula>C$6="日"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="土">
-      <formula>NOT(ISERROR(SEARCH("土",C6)))</formula>
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>C$6="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:AG8">
-    <cfRule type="top10" dxfId="5" priority="26" percent="1" rank="100"/>
+    <cfRule type="top10" dxfId="19" priority="29" percent="1" rank="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AG10">
-    <cfRule type="top10" dxfId="4" priority="20" percent="1" rank="100"/>
+    <cfRule type="top10" dxfId="18" priority="23" percent="1" rank="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AG12">
-    <cfRule type="top10" dxfId="3" priority="16" percent="1" rank="100"/>
+    <cfRule type="top10" dxfId="17" priority="19" percent="1" rank="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AG14">
-    <cfRule type="top10" dxfId="2" priority="12" percent="1" rank="100"/>
+    <cfRule type="top10" dxfId="16" priority="15" percent="1" rank="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:AG16">
-    <cfRule type="top10" dxfId="1" priority="8" percent="1" rank="100"/>
+    <cfRule type="top10" dxfId="15" priority="11" percent="1" rank="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:AG18">
-    <cfRule type="top10" dxfId="0" priority="4" percent="1" rank="100"/>
+    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>C$6="日"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
